--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/10/seed4/result_data_KNN.xlsx
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.67</v>
+        <v>-10.85</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.946</v>
+        <v>-11.62</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.98</v>
+        <v>-12.354</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.964</v>
+        <v>-12.951</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.808</v>
+        <v>-10.537</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.75</v>
+        <v>-13.032</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.198</v>
+        <v>-11.885</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
